--- a/DateBase/orders/Nha Thu_2025-12-4.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-4.xlsx
@@ -726,6 +726,9 @@
       <c r="G2" t="str">
         <v>01015756155568129.55103.5101561010101510104010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-12-4.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-4.xlsx
@@ -661,6 +661,9 @@
       <c r="G2" t="str">
         <v>011015101055510105515601010101015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
